--- a/CancerSummary/SchemaUpdates.xlsx
+++ b/CancerSummary/SchemaUpdates.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>SOURCE</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Epithelium</t>
-  </si>
-  <si>
-    <t>["Serous High", "Serous Low", "Clear Cell (automatically Grade 3)", "Undifferentiated (automatically Grade 3)", "Endometroid",  "Mucinous", "Transitional", "Mixed Epithelial Types", "Endometroid,Mucinous, Clear Cell", "Mixed Endometroid, Serous", "Other", null]</t>
-  </si>
-  <si>
-    <t>["Adenocarcinoma - NOS", "Carcinosarcoma", "Endometrioid, Clear Cell", "Pseudomyxoma peritoneii", "Serous - NOS"]</t>
   </si>
   <si>
     <t>ER_STATUS</t>
@@ -145,9 +139,6 @@
     <t>meaning of "N" is not available</t>
   </si>
   <si>
-    <t>NEW_VALUES_ADDED</t>
-  </si>
-  <si>
     <t>meaning of "U" is not available</t>
   </si>
   <si>
@@ -206,6 +197,67 @@
   </si>
   <si>
     <t>Meaning of new values not available</t>
+  </si>
+  <si>
+    <t>HistoPath_BreastCancer</t>
+  </si>
+  <si>
+    <t>Malignant</t>
+  </si>
+  <si>
+    <t>Need description for enum values</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>["L", "R"]</t>
+  </si>
+  <si>
+    <t>["U"]</t>
+  </si>
+  <si>
+    <t>ScreenDetected</t>
+  </si>
+  <si>
+    <t>["Y", "N"]</t>
+  </si>
+  <si>
+    <t>["NK"]</t>
+  </si>
+  <si>
+    <t>meaning of "NK" is not available</t>
+  </si>
+  <si>
+    <t>UPDATED</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>"Carcinosarcoma", "Serous High", "Serous Low", "Clear Cell (automatically Grade 3)", 
+                "Undifferentiated (automatically Grade 3)", "Endometroid", "Mucinous", "Transitional",  "Mixed Epithelial Types", "Endometroid, Mucinous, Clear Cell", "Mixed Endometroid, Serous", "Other", null</t>
+  </si>
+  <si>
+    <t>["Adenocarcinoma - NOS",  "Endometrioid, Clear Cell", "Pseudomyxoma peritoneii", "Serous - NOS"]</t>
+  </si>
+  <si>
+    <t>NEW_VALUES</t>
+  </si>
+  <si>
+    <t>InvasiveGrade</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, null]</t>
+  </si>
+  <si>
+    <t>["NA"]</t>
+  </si>
+  <si>
+    <t>Need to know what is "NA" and convert the data accordingly</t>
   </si>
 </sst>
 </file>
@@ -243,7 +295,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -273,10 +325,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -288,10 +338,58 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -300,24 +398,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -328,91 +409,103 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,139 +798,233 @@
     <col min="1" max="2" width="24.54296875" customWidth="1"/>
     <col min="3" max="3" width="69.54296875" customWidth="1"/>
     <col min="4" max="4" width="66.26953125" customWidth="1"/>
-    <col min="5" max="5" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="27"/>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="144.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27"/>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="185.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27"/>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="25"/>
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="29"/>
+      <c r="B10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="29"/>
+      <c r="B11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="144.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="185.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="8"/>
+      <c r="F11" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="26"/>
+      <c r="B12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CancerSummary/SchemaUpdates.xlsx
+++ b/CancerSummary/SchemaUpdates.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>SOURCE</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Need to know what is "NA" and convert the data accordingly</t>
+  </si>
+  <si>
+    <t>Need to know whether the new values are valid or not</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -479,7 +482,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,6 +491,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,6 +510,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -790,7 +798,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -818,7 +826,7 @@
       <c r="E1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>36</v>
       </c>
     </row>
@@ -945,7 +953,9 @@
       <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="F8" s="12" t="s">
         <v>38</v>
       </c>
@@ -961,26 +971,28 @@
         <v>28</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="21"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="29"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="23" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="29"/>
@@ -993,7 +1005,7 @@
       <c r="D11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -1011,7 +1023,7 @@
       <c r="D12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="12" t="s">

--- a/CancerSummary/SchemaUpdates.xlsx
+++ b/CancerSummary/SchemaUpdates.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>SOURCE</t>
   </si>
@@ -136,9 +136,6 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>meaning of "N" is not available</t>
-  </si>
-  <si>
     <t>meaning of "U" is not available</t>
   </si>
   <si>
@@ -226,22 +223,12 @@
     <t>["NK"]</t>
   </si>
   <si>
-    <t>meaning of "NK" is not available</t>
-  </si>
-  <si>
     <t>UPDATED</t>
   </si>
   <si>
     <t>YES</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>"Carcinosarcoma", "Serous High", "Serous Low", "Clear Cell (automatically Grade 3)", 
-                "Undifferentiated (automatically Grade 3)", "Endometroid", "Mucinous", "Transitional",  "Mixed Epithelial Types", "Endometroid, Mucinous, Clear Cell", "Mixed Endometroid, Serous", "Other", null</t>
-  </si>
-  <si>
     <t>["Adenocarcinoma - NOS",  "Endometrioid, Clear Cell", "Pseudomyxoma peritoneii", "Serous - NOS"]</t>
   </si>
   <si>
@@ -257,10 +244,26 @@
     <t>["NA"]</t>
   </si>
   <si>
-    <t>Need to know what is "NA" and convert the data accordingly</t>
-  </si>
-  <si>
-    <t>Need to know whether the new values are valid or not</t>
+    <t>["Carcinosarcoma", "Serous High", "Serous Low", "Clear Cell (automatically Grade 3)", 
+                "Undifferentiated (automatically Grade 3)", "Endometroid", "Mucinous", "Transitional",  "Mixed Epithelial Types", "Endometroid, Mucinous, Clear Cell", "Mixed Endometroid, Serous", "Other", null]</t>
+  </si>
+  <si>
+    <t>U: Unknown</t>
+  </si>
+  <si>
+    <t>NK: Not Known</t>
+  </si>
+  <si>
+    <t>All are valid values and can be added</t>
+  </si>
+  <si>
+    <t>Added the description</t>
+  </si>
+  <si>
+    <t>"N" is Not reported and is same as null. Need to covert all null to N in the data</t>
+  </si>
+  <si>
+    <t>"NA" means Not assessable</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -470,50 +473,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,16 +803,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="69.54296875" customWidth="1"/>
-    <col min="4" max="4" width="66.26953125" customWidth="1"/>
-    <col min="5" max="5" width="51.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.81640625" customWidth="1"/>
+    <col min="4" max="4" width="40.26953125" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" style="31" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" style="13"/>
   </cols>
   <sheetData>
@@ -821,17 +827,17 @@
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>36</v>
+      <c r="F1" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -843,15 +849,15 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>17</v>
+      <c r="E2" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -861,15 +867,15 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>17</v>
+      <c r="E3" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -879,51 +885,51 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="144.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="144.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="185.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="185.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="E6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -935,99 +941,101 @@
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>16</v>
+      <c r="E7" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A8" s="20"/>
       <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
+      <c r="B10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="E10" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
+      <c r="B11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="29"/>
-      <c r="B10" s="22" t="s">
+      <c r="C11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="F11" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="21"/>
+      <c r="B12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
-      <c r="B11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
-      <c r="B12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="F12" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
